--- a/uploads/EquiposConstruccion/EquiposConstruccion_relaves.xlsx
+++ b/uploads/EquiposConstruccion/EquiposConstruccion_relaves.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/duplicado relaves/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/EquiposConstruccion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_377943F7CFFBCA3BBF2D4CBA456A2EA778797037" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D783196D-CE03-47E7-853C-D78511EC6F76}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_377943F7CFFBCA3BBF2D4CBA456A2EA778797037" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5FCE85E-2BC3-4623-9496-A486E3C970E8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1636,12 +1636,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1949,10 +1948,15 @@
   <dimension ref="A1:C460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E460"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1972,7 +1976,7 @@
       <c r="B2" t="s">
         <v>462</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>36.150000000000006</v>
       </c>
     </row>
@@ -1983,7 +1987,7 @@
       <c r="B3" t="s">
         <v>463</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>1.1850000000000001</v>
       </c>
     </row>
@@ -1994,7 +1998,7 @@
       <c r="B4" t="s">
         <v>463</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>1.59</v>
       </c>
     </row>
@@ -2005,7 +2009,7 @@
       <c r="B5" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>36.150000000000006</v>
       </c>
     </row>
@@ -2016,7 +2020,7 @@
       <c r="B6" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>36.150000000000006</v>
       </c>
     </row>
@@ -2027,7 +2031,7 @@
       <c r="B7" t="s">
         <v>462</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>36.150000000000006</v>
       </c>
     </row>
@@ -2038,7 +2042,7 @@
       <c r="B8" t="s">
         <v>464</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>21.75</v>
       </c>
     </row>
@@ -2049,7 +2053,7 @@
       <c r="B9" t="s">
         <v>464</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>21.75</v>
       </c>
     </row>
@@ -2060,7 +2064,7 @@
       <c r="B10" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>21.75</v>
       </c>
     </row>
@@ -2071,7 +2075,7 @@
       <c r="B11" t="s">
         <v>464</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>21.75</v>
       </c>
     </row>
@@ -2082,7 +2086,7 @@
       <c r="B12" t="s">
         <v>465</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>291</v>
       </c>
     </row>
@@ -2093,7 +2097,7 @@
       <c r="B13" t="s">
         <v>466</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>253.5</v>
       </c>
     </row>
@@ -2104,7 +2108,7 @@
       <c r="B14" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
@@ -2115,7 +2119,7 @@
       <c r="B15" t="s">
         <v>463</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -2126,7 +2130,7 @@
       <c r="B16" t="s">
         <v>467</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>134.25</v>
       </c>
     </row>
@@ -2137,7 +2141,7 @@
       <c r="B17" t="s">
         <v>463</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
@@ -2148,7 +2152,7 @@
       <c r="B18" t="s">
         <v>468</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>103.94999999999999</v>
       </c>
     </row>
@@ -2159,7 +2163,7 @@
       <c r="B19" t="s">
         <v>469</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>59.699999999999996</v>
       </c>
     </row>
@@ -2170,7 +2174,7 @@
       <c r="B20" t="s">
         <v>470</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>50.400000000000006</v>
       </c>
     </row>
@@ -2181,7 +2185,7 @@
       <c r="B21" t="s">
         <v>470</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>29.400000000000002</v>
       </c>
     </row>
@@ -2192,7 +2196,7 @@
       <c r="B22" t="s">
         <v>471</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>90</v>
       </c>
     </row>
@@ -2203,7 +2207,7 @@
       <c r="B23" t="s">
         <v>469</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>4.9499999999999993</v>
       </c>
     </row>
@@ -2214,7 +2218,7 @@
       <c r="B24" t="s">
         <v>469</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>4.9499999999999993</v>
       </c>
     </row>
@@ -2225,7 +2229,7 @@
       <c r="B25" t="s">
         <v>472</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -2236,7 +2240,7 @@
       <c r="B26" t="s">
         <v>473</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>27.315000000000001</v>
       </c>
     </row>
@@ -2247,7 +2251,7 @@
       <c r="B27" t="s">
         <v>474</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>3.87</v>
       </c>
     </row>
@@ -2258,7 +2262,7 @@
       <c r="B28" t="s">
         <v>474</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>1.5</v>
       </c>
     </row>
@@ -2269,7 +2273,7 @@
       <c r="B29" t="s">
         <v>467</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>1.5</v>
       </c>
     </row>
@@ -2280,7 +2284,7 @@
       <c r="B30" t="s">
         <v>466</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>150</v>
       </c>
     </row>
@@ -2291,7 +2295,7 @@
       <c r="B31" t="s">
         <v>475</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -2302,7 +2306,7 @@
       <c r="B32" t="s">
         <v>466</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>150</v>
       </c>
     </row>
@@ -2313,7 +2317,7 @@
       <c r="B33" t="s">
         <v>467</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>1.5</v>
       </c>
     </row>
@@ -2324,7 +2328,7 @@
       <c r="B34" t="s">
         <v>467</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>1.5</v>
       </c>
     </row>
@@ -2335,7 +2339,7 @@
       <c r="B35" t="s">
         <v>466</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>45</v>
       </c>
     </row>
@@ -2346,7 +2350,7 @@
       <c r="B36" t="s">
         <v>471</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>9</v>
       </c>
     </row>
@@ -2357,7 +2361,7 @@
       <c r="B37" t="s">
         <v>476</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>9</v>
       </c>
     </row>
@@ -2368,7 +2372,7 @@
       <c r="B38" t="s">
         <v>477</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>91.26</v>
       </c>
     </row>
@@ -2379,7 +2383,7 @@
       <c r="B39" t="s">
         <v>476</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>75</v>
       </c>
     </row>
@@ -2390,7 +2394,7 @@
       <c r="B40" t="s">
         <v>476</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>75</v>
       </c>
     </row>
@@ -2401,7 +2405,7 @@
       <c r="B41" t="s">
         <v>478</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>150</v>
       </c>
     </row>
@@ -2412,7 +2416,7 @@
       <c r="B42" t="s">
         <v>479</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>75</v>
       </c>
     </row>
@@ -2423,7 +2427,7 @@
       <c r="B43" t="s">
         <v>480</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>75</v>
       </c>
     </row>
@@ -2434,7 +2438,7 @@
       <c r="B44" t="s">
         <v>477</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>75</v>
       </c>
     </row>
@@ -2445,7 +2449,7 @@
       <c r="B45" t="s">
         <v>463</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>11.925000000000001</v>
       </c>
     </row>
@@ -2456,7 +2460,7 @@
       <c r="B46" t="s">
         <v>475</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>75</v>
       </c>
     </row>
@@ -2467,7 +2471,7 @@
       <c r="B47" t="s">
         <v>475</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>75</v>
       </c>
     </row>
@@ -2478,7 +2482,7 @@
       <c r="B48" t="s">
         <v>462</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>75</v>
       </c>
     </row>
@@ -2489,7 +2493,7 @@
       <c r="B49" t="s">
         <v>468</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -2500,7 +2504,7 @@
       <c r="B50" t="s">
         <v>481</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>59.64</v>
       </c>
     </row>
@@ -2511,7 +2515,7 @@
       <c r="B51" t="s">
         <v>482</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>59.64</v>
       </c>
     </row>
@@ -2522,7 +2526,7 @@
       <c r="B52" t="s">
         <v>469</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>67.545000000000002</v>
       </c>
     </row>
@@ -2533,7 +2537,7 @@
       <c r="B53" t="s">
         <v>474</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>76.14</v>
       </c>
     </row>
@@ -2544,7 +2548,7 @@
       <c r="B54" t="s">
         <v>483</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>29.369999999999997</v>
       </c>
     </row>
@@ -2555,7 +2559,7 @@
       <c r="B55" t="s">
         <v>463</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -2566,7 +2570,7 @@
       <c r="B56" t="s">
         <v>463</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>201.63</v>
       </c>
     </row>
@@ -2577,7 +2581,7 @@
       <c r="B57" t="s">
         <v>463</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
         <v>0.39</v>
       </c>
     </row>
@@ -2588,7 +2592,7 @@
       <c r="B58" t="s">
         <v>474</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -2599,7 +2603,7 @@
       <c r="B59" t="s">
         <v>474</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -2610,7 +2614,7 @@
       <c r="B60" t="s">
         <v>463</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>1.1850000000000001</v>
       </c>
     </row>
@@ -2621,7 +2625,7 @@
       <c r="B61" t="s">
         <v>463</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>1.59</v>
       </c>
     </row>
@@ -2632,7 +2636,7 @@
       <c r="B62" t="s">
         <v>463</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>11.925000000000001</v>
       </c>
     </row>
@@ -2643,7 +2647,7 @@
       <c r="B63" t="s">
         <v>472</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -2654,7 +2658,7 @@
       <c r="B64" t="s">
         <v>472</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -2665,7 +2669,7 @@
       <c r="B65" t="s">
         <v>474</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>3.87</v>
       </c>
     </row>
@@ -2676,7 +2680,7 @@
       <c r="B66" t="s">
         <v>474</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>3.87</v>
       </c>
     </row>
@@ -2687,7 +2691,7 @@
       <c r="B67" t="s">
         <v>484</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -2698,7 +2702,7 @@
       <c r="B68" t="s">
         <v>484</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -2709,7 +2713,7 @@
       <c r="B69" t="s">
         <v>466</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
         <v>150</v>
       </c>
     </row>
@@ -2720,7 +2724,7 @@
       <c r="B70" t="s">
         <v>485</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
         <v>300</v>
       </c>
     </row>
@@ -2731,7 +2735,7 @@
       <c r="B71" t="s">
         <v>474</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71">
         <v>1.5</v>
       </c>
     </row>
@@ -2742,7 +2746,7 @@
       <c r="B72" t="s">
         <v>474</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
         <v>1.5</v>
       </c>
     </row>
@@ -2753,7 +2757,7 @@
       <c r="B73" t="s">
         <v>467</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>7.5</v>
       </c>
     </row>
@@ -2764,7 +2768,7 @@
       <c r="B74" t="s">
         <v>486</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>11250</v>
       </c>
     </row>
@@ -2775,7 +2779,7 @@
       <c r="B75" t="s">
         <v>474</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>1.5</v>
       </c>
     </row>
@@ -2786,7 +2790,7 @@
       <c r="B76" t="s">
         <v>487</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>3</v>
       </c>
     </row>
@@ -2797,7 +2801,7 @@
       <c r="B77" t="s">
         <v>481</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>59.64</v>
       </c>
     </row>
@@ -2808,7 +2812,7 @@
       <c r="B78" t="s">
         <v>488</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
         <v>50.46</v>
       </c>
     </row>
@@ -2819,7 +2823,7 @@
       <c r="B79" t="s">
         <v>474</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>76.14</v>
       </c>
     </row>
@@ -2830,7 +2834,7 @@
       <c r="B80" t="s">
         <v>463</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -2841,7 +2845,7 @@
       <c r="B81" t="s">
         <v>463</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
         <v>115.22999999999999</v>
       </c>
     </row>
@@ -2852,7 +2856,7 @@
       <c r="B82" t="s">
         <v>463</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
         <v>115.22999999999999</v>
       </c>
     </row>
@@ -2863,7 +2867,7 @@
       <c r="B83" t="s">
         <v>463</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>201.63</v>
       </c>
     </row>
@@ -2874,7 +2878,7 @@
       <c r="B84" t="s">
         <v>463</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
         <v>0.39</v>
       </c>
     </row>
@@ -2885,7 +2889,7 @@
       <c r="B85" t="s">
         <v>481</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
         <v>2.355</v>
       </c>
     </row>
@@ -2896,7 +2900,7 @@
       <c r="B86" t="s">
         <v>474</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -2907,7 +2911,7 @@
       <c r="B87" t="s">
         <v>474</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -2918,7 +2922,7 @@
       <c r="B88" t="s">
         <v>474</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -2929,7 +2933,7 @@
       <c r="B89" t="s">
         <v>474</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -2940,7 +2944,7 @@
       <c r="B90" t="s">
         <v>489</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90">
         <v>61.965000000000003</v>
       </c>
     </row>
@@ -2951,7 +2955,7 @@
       <c r="B91" t="s">
         <v>462</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -2962,7 +2966,7 @@
       <c r="B92" t="s">
         <v>467</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92">
         <v>134.23499999999999</v>
       </c>
     </row>
@@ -2973,7 +2977,7 @@
       <c r="B93" t="s">
         <v>485</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -2984,7 +2988,7 @@
       <c r="B94" t="s">
         <v>485</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -2995,7 +2999,7 @@
       <c r="B95" t="s">
         <v>490</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -3006,7 +3010,7 @@
       <c r="B96" t="s">
         <v>491</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -3017,7 +3021,7 @@
       <c r="B97" t="s">
         <v>491</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -3028,7 +3032,7 @@
       <c r="B98" t="s">
         <v>491</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -3039,7 +3043,7 @@
       <c r="B99" t="s">
         <v>474</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99">
         <v>3.87</v>
       </c>
     </row>
@@ -3050,7 +3054,7 @@
       <c r="B100" t="s">
         <v>492</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100">
         <v>36.134999999999998</v>
       </c>
     </row>
@@ -3061,7 +3065,7 @@
       <c r="B101" t="s">
         <v>492</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101">
         <v>36.134999999999998</v>
       </c>
     </row>
@@ -3072,7 +3076,7 @@
       <c r="B102" t="s">
         <v>474</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102">
         <v>3.87</v>
       </c>
     </row>
@@ -3083,7 +3087,7 @@
       <c r="B103" t="s">
         <v>466</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103">
         <v>253.46999999999997</v>
       </c>
     </row>
@@ -3094,7 +3098,7 @@
       <c r="B104" t="s">
         <v>467</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104">
         <v>134.23499999999999</v>
       </c>
     </row>
@@ -3105,7 +3109,7 @@
       <c r="B105" t="s">
         <v>466</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105">
         <v>150</v>
       </c>
     </row>
@@ -3116,7 +3120,7 @@
       <c r="B106" t="s">
         <v>466</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106">
         <v>150</v>
       </c>
     </row>
@@ -3127,7 +3131,7 @@
       <c r="B107" t="s">
         <v>464</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107">
         <v>225</v>
       </c>
     </row>
@@ -3138,7 +3142,7 @@
       <c r="B108" t="s">
         <v>474</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108">
         <v>1.5</v>
       </c>
     </row>
@@ -3149,7 +3153,7 @@
       <c r="B109" t="s">
         <v>474</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109">
         <v>1.5</v>
       </c>
     </row>
@@ -3160,7 +3164,7 @@
       <c r="B110" t="s">
         <v>474</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110">
         <v>1.5</v>
       </c>
     </row>
@@ -3171,7 +3175,7 @@
       <c r="B111" t="s">
         <v>486</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111">
         <v>11250</v>
       </c>
     </row>
@@ -3182,7 +3186,7 @@
       <c r="B112" t="s">
         <v>474</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112">
         <v>1.5</v>
       </c>
     </row>
@@ -3193,7 +3197,7 @@
       <c r="B113" t="s">
         <v>474</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113">
         <v>1.5</v>
       </c>
     </row>
@@ -3204,7 +3208,7 @@
       <c r="B114" t="s">
         <v>493</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114">
         <v>6</v>
       </c>
     </row>
@@ -3215,7 +3219,7 @@
       <c r="B115" t="s">
         <v>487</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115">
         <v>3</v>
       </c>
     </row>
@@ -3226,7 +3230,7 @@
       <c r="B116" t="s">
         <v>467</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116">
         <v>2.25</v>
       </c>
     </row>
@@ -3237,7 +3241,7 @@
       <c r="B117" t="s">
         <v>467</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117">
         <v>1.5</v>
       </c>
     </row>
@@ -3248,7 +3252,7 @@
       <c r="B118" t="s">
         <v>467</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118">
         <v>1.5</v>
       </c>
     </row>
@@ -3259,7 +3263,7 @@
       <c r="B119" t="s">
         <v>466</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119">
         <v>45</v>
       </c>
     </row>
@@ -3270,7 +3274,7 @@
       <c r="B120" t="s">
         <v>467</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120">
         <v>2.25</v>
       </c>
     </row>
@@ -3281,7 +3285,7 @@
       <c r="B121" t="s">
         <v>463</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -3292,7 +3296,7 @@
       <c r="B122" t="s">
         <v>463</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122">
         <v>201.63</v>
       </c>
     </row>
@@ -3303,7 +3307,7 @@
       <c r="B123" t="s">
         <v>463</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123">
         <v>0.39</v>
       </c>
     </row>
@@ -3314,7 +3318,7 @@
       <c r="B124" t="s">
         <v>494</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124">
         <v>98.16</v>
       </c>
     </row>
@@ -3325,7 +3329,7 @@
       <c r="B125" t="s">
         <v>472</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -3336,7 +3340,7 @@
       <c r="B126" t="s">
         <v>472</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -3347,7 +3351,7 @@
       <c r="B127" t="s">
         <v>463</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -3358,7 +3362,7 @@
       <c r="B128" t="s">
         <v>463</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128">
         <v>201.63</v>
       </c>
     </row>
@@ -3369,7 +3373,7 @@
       <c r="B129" t="s">
         <v>463</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129">
         <v>0.39</v>
       </c>
     </row>
@@ -3380,7 +3384,7 @@
       <c r="B130" t="s">
         <v>491</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -3391,7 +3395,7 @@
       <c r="B131" t="s">
         <v>484</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -3402,7 +3406,7 @@
       <c r="B132" t="s">
         <v>484</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -3413,7 +3417,7 @@
       <c r="B133" t="s">
         <v>484</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -3424,7 +3428,7 @@
       <c r="B134" t="s">
         <v>484</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -3435,7 +3439,7 @@
       <c r="B135" t="s">
         <v>472</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -3446,7 +3450,7 @@
       <c r="B136" t="s">
         <v>472</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -3457,7 +3461,7 @@
       <c r="B137" t="s">
         <v>472</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -3468,7 +3472,7 @@
       <c r="B138" t="s">
         <v>472</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -3479,7 +3483,7 @@
       <c r="B139" t="s">
         <v>472</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -3490,7 +3494,7 @@
       <c r="B140" t="s">
         <v>491</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -3501,7 +3505,7 @@
       <c r="B141" t="s">
         <v>463</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -3512,7 +3516,7 @@
       <c r="B142" t="s">
         <v>463</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142">
         <v>201.63</v>
       </c>
     </row>
@@ -3523,7 +3527,7 @@
       <c r="B143" t="s">
         <v>463</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143">
         <v>0.39</v>
       </c>
     </row>
@@ -3534,7 +3538,7 @@
       <c r="B144" t="s">
         <v>495</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144">
         <v>99.495000000000005</v>
       </c>
     </row>
@@ -3545,7 +3549,7 @@
       <c r="B145" t="s">
         <v>490</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -3556,7 +3560,7 @@
       <c r="B146" t="s">
         <v>485</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -3567,7 +3571,7 @@
       <c r="B147" t="s">
         <v>496</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147">
         <v>13.245000000000001</v>
       </c>
     </row>
@@ -3578,7 +3582,7 @@
       <c r="B148" t="s">
         <v>497</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148">
         <v>43.214999999999996</v>
       </c>
     </row>
@@ -3589,7 +3593,7 @@
       <c r="B149" t="s">
         <v>491</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -3600,7 +3604,7 @@
       <c r="B150" t="s">
         <v>491</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -3611,7 +3615,7 @@
       <c r="B151" t="s">
         <v>491</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -3622,7 +3626,7 @@
       <c r="B152" t="s">
         <v>492</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152">
         <v>36.134999999999998</v>
       </c>
     </row>
@@ -3633,7 +3637,7 @@
       <c r="B153" t="s">
         <v>492</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153">
         <v>36.134999999999998</v>
       </c>
     </row>
@@ -3644,7 +3648,7 @@
       <c r="B154" t="s">
         <v>492</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154">
         <v>36.134999999999998</v>
       </c>
     </row>
@@ -3655,7 +3659,7 @@
       <c r="B155" t="s">
         <v>484</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -3666,7 +3670,7 @@
       <c r="B156" t="s">
         <v>484</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -3677,7 +3681,7 @@
       <c r="B157" t="s">
         <v>484</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -3688,7 +3692,7 @@
       <c r="B158" t="s">
         <v>484</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -3699,7 +3703,7 @@
       <c r="B159" t="s">
         <v>474</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159">
         <v>3.87</v>
       </c>
     </row>
@@ -3710,7 +3714,7 @@
       <c r="B160" t="s">
         <v>474</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160">
         <v>3.87</v>
       </c>
     </row>
@@ -3721,7 +3725,7 @@
       <c r="B161" t="s">
         <v>491</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -3732,7 +3736,7 @@
       <c r="B162" t="s">
         <v>466</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162">
         <v>328.46999999999997</v>
       </c>
     </row>
@@ -3743,7 +3747,7 @@
       <c r="B163" t="s">
         <v>466</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163">
         <v>290.96999999999997</v>
       </c>
     </row>
@@ -3754,7 +3758,7 @@
       <c r="B164" t="s">
         <v>467</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164">
         <v>134.23499999999999</v>
       </c>
     </row>
@@ -3765,7 +3769,7 @@
       <c r="B165" t="s">
         <v>474</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165">
         <v>1.5</v>
       </c>
     </row>
@@ -3776,7 +3780,7 @@
       <c r="B166" t="s">
         <v>474</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166">
         <v>1.5</v>
       </c>
     </row>
@@ -3787,7 +3791,7 @@
       <c r="B167" t="s">
         <v>498</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167">
         <v>7500</v>
       </c>
     </row>
@@ -3798,7 +3802,7 @@
       <c r="B168" t="s">
         <v>474</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168">
         <v>1.5</v>
       </c>
     </row>
@@ -3809,7 +3813,7 @@
       <c r="B169" t="s">
         <v>474</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169">
         <v>1.5</v>
       </c>
     </row>
@@ -3820,7 +3824,7 @@
       <c r="B170" t="s">
         <v>467</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170">
         <v>37.5</v>
       </c>
     </row>
@@ -3831,7 +3835,7 @@
       <c r="B171" t="s">
         <v>463</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -3842,7 +3846,7 @@
       <c r="B172" t="s">
         <v>463</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172">
         <v>201.63</v>
       </c>
     </row>
@@ -3853,7 +3857,7 @@
       <c r="B173" t="s">
         <v>463</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173">
         <v>0.39</v>
       </c>
     </row>
@@ -3864,7 +3868,7 @@
       <c r="B174" t="s">
         <v>466</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174">
         <v>111.73499999999999</v>
       </c>
     </row>
@@ -3875,7 +3879,7 @@
       <c r="B175" t="s">
         <v>474</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175">
         <v>3.87</v>
       </c>
     </row>
@@ -3886,7 +3890,7 @@
       <c r="B176" t="s">
         <v>474</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176">
         <v>1.5</v>
       </c>
     </row>
@@ -3897,7 +3901,7 @@
       <c r="B177" t="s">
         <v>499</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177">
         <v>2250</v>
       </c>
     </row>
@@ -3908,7 +3912,7 @@
       <c r="B178" t="s">
         <v>474</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178">
         <v>1.5</v>
       </c>
     </row>
@@ -3919,7 +3923,7 @@
       <c r="B179" t="s">
         <v>474</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179">
         <v>1.5</v>
       </c>
     </row>
@@ -3930,7 +3934,7 @@
       <c r="B180" t="s">
         <v>467</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180">
         <v>2.25</v>
       </c>
     </row>
@@ -3941,7 +3945,7 @@
       <c r="B181" t="s">
         <v>463</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -3952,7 +3956,7 @@
       <c r="B182" t="s">
         <v>463</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182">
         <v>201.63</v>
       </c>
     </row>
@@ -3963,7 +3967,7 @@
       <c r="B183" t="s">
         <v>463</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183">
         <v>0.39</v>
       </c>
     </row>
@@ -3974,7 +3978,7 @@
       <c r="B184" t="s">
         <v>464</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184">
         <v>114.24</v>
       </c>
     </row>
@@ -3985,7 +3989,7 @@
       <c r="B185" t="s">
         <v>490</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185">
         <v>100.72500000000001</v>
       </c>
     </row>
@@ -3996,7 +4000,7 @@
       <c r="B186" t="s">
         <v>474</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186">
         <v>1.5</v>
       </c>
     </row>
@@ -4007,7 +4011,7 @@
       <c r="B187" t="s">
         <v>499</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187">
         <v>2250</v>
       </c>
     </row>
@@ -4018,7 +4022,7 @@
       <c r="B188" t="s">
         <v>467</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188">
         <v>2.25</v>
       </c>
     </row>
@@ -4029,7 +4033,7 @@
       <c r="B189" t="s">
         <v>481</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189">
         <v>59.64</v>
       </c>
     </row>
@@ -4040,7 +4044,7 @@
       <c r="B190" t="s">
         <v>488</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190">
         <v>50.46</v>
       </c>
     </row>
@@ -4051,7 +4055,7 @@
       <c r="B191" t="s">
         <v>474</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191">
         <v>76.14</v>
       </c>
     </row>
@@ -4062,7 +4066,7 @@
       <c r="B192" t="s">
         <v>463</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -4073,7 +4077,7 @@
       <c r="B193" t="s">
         <v>463</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193">
         <v>115.22999999999999</v>
       </c>
     </row>
@@ -4084,7 +4088,7 @@
       <c r="B194" t="s">
         <v>463</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194">
         <v>115.22999999999999</v>
       </c>
     </row>
@@ -4095,7 +4099,7 @@
       <c r="B195" t="s">
         <v>463</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195">
         <v>201.63</v>
       </c>
     </row>
@@ -4106,7 +4110,7 @@
       <c r="B196" t="s">
         <v>463</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196">
         <v>0.39</v>
       </c>
     </row>
@@ -4117,7 +4121,7 @@
       <c r="B197" t="s">
         <v>468</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197">
         <v>1.98</v>
       </c>
     </row>
@@ -4128,7 +4132,7 @@
       <c r="B198" t="s">
         <v>481</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198">
         <v>2.355</v>
       </c>
     </row>
@@ -4139,7 +4143,7 @@
       <c r="B199" t="s">
         <v>474</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -4150,7 +4154,7 @@
       <c r="B200" t="s">
         <v>474</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -4161,7 +4165,7 @@
       <c r="B201" t="s">
         <v>474</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -4172,7 +4176,7 @@
       <c r="B202" t="s">
         <v>474</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -4183,7 +4187,7 @@
       <c r="B203" t="s">
         <v>469</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203">
         <v>13.424999999999999</v>
       </c>
     </row>
@@ -4194,7 +4198,7 @@
       <c r="B204" t="s">
         <v>469</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204">
         <v>13.424999999999999</v>
       </c>
     </row>
@@ -4205,7 +4209,7 @@
       <c r="B205" t="s">
         <v>500</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205">
         <v>159.09</v>
       </c>
     </row>
@@ -4216,7 +4220,7 @@
       <c r="B206" t="s">
         <v>485</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -4227,7 +4231,7 @@
       <c r="B207" t="s">
         <v>485</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -4238,7 +4242,7 @@
       <c r="B208" t="s">
         <v>485</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -4249,7 +4253,7 @@
       <c r="B209" t="s">
         <v>490</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209">
         <v>100.72500000000001</v>
       </c>
     </row>
@@ -4260,7 +4264,7 @@
       <c r="B210" t="s">
         <v>490</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210">
         <v>100.72500000000001</v>
       </c>
     </row>
@@ -4271,7 +4275,7 @@
       <c r="B211" t="s">
         <v>501</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211">
         <v>101.49</v>
       </c>
     </row>
@@ -4282,7 +4286,7 @@
       <c r="B212" t="s">
         <v>485</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -4293,7 +4297,7 @@
       <c r="B213" t="s">
         <v>485</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -4304,7 +4308,7 @@
       <c r="B214" t="s">
         <v>467</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214">
         <v>134.23499999999999</v>
       </c>
     </row>
@@ -4315,7 +4319,7 @@
       <c r="B215" t="s">
         <v>490</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215">
         <v>100.72500000000001</v>
       </c>
     </row>
@@ -4326,7 +4330,7 @@
       <c r="B216" t="s">
         <v>472</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -4337,7 +4341,7 @@
       <c r="B217" t="s">
         <v>472</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -4348,7 +4352,7 @@
       <c r="B218" t="s">
         <v>472</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -4359,7 +4363,7 @@
       <c r="B219" t="s">
         <v>472</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219">
         <v>4.9050000000000002</v>
       </c>
     </row>
@@ -4370,7 +4374,7 @@
       <c r="B220" t="s">
         <v>491</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -4381,7 +4385,7 @@
       <c r="B221" t="s">
         <v>491</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -4392,7 +4396,7 @@
       <c r="B222" t="s">
         <v>491</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -4403,7 +4407,7 @@
       <c r="B223" t="s">
         <v>491</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -4414,7 +4418,7 @@
       <c r="B224" t="s">
         <v>491</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -4425,7 +4429,7 @@
       <c r="B225" t="s">
         <v>497</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225">
         <v>43.214999999999996</v>
       </c>
     </row>
@@ -4436,7 +4440,7 @@
       <c r="B226" t="s">
         <v>491</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -4447,7 +4451,7 @@
       <c r="B227" t="s">
         <v>491</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -4458,7 +4462,7 @@
       <c r="B228" t="s">
         <v>491</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -4469,7 +4473,7 @@
       <c r="B229" t="s">
         <v>491</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -4480,7 +4484,7 @@
       <c r="B230" t="s">
         <v>491</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230">
         <v>21.734999999999999</v>
       </c>
     </row>
@@ -4491,7 +4495,7 @@
       <c r="B231" t="s">
         <v>497</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231">
         <v>43.214999999999996</v>
       </c>
     </row>
@@ -4502,7 +4506,7 @@
       <c r="B232" t="s">
         <v>467</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232">
         <v>1.5</v>
       </c>
     </row>
@@ -4513,7 +4517,7 @@
       <c r="B233" t="s">
         <v>467</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233">
         <v>1.5</v>
       </c>
     </row>
@@ -4524,7 +4528,7 @@
       <c r="B234" t="s">
         <v>467</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234">
         <v>2.25</v>
       </c>
     </row>
@@ -4535,7 +4539,7 @@
       <c r="B235" t="s">
         <v>466</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235">
         <v>150</v>
       </c>
     </row>
@@ -4546,7 +4550,7 @@
       <c r="B236" t="s">
         <v>474</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236">
         <v>1.5</v>
       </c>
     </row>
@@ -4557,7 +4561,7 @@
       <c r="B237" t="s">
         <v>474</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237">
         <v>1.5</v>
       </c>
     </row>
@@ -4568,7 +4572,7 @@
       <c r="B238" t="s">
         <v>474</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238">
         <v>1.5</v>
       </c>
     </row>
@@ -4579,7 +4583,7 @@
       <c r="B239" t="s">
         <v>474</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239">
         <v>1.5</v>
       </c>
     </row>
@@ -4590,7 +4594,7 @@
       <c r="B240" t="s">
         <v>474</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240">
         <v>1.5</v>
       </c>
     </row>
@@ -4601,7 +4605,7 @@
       <c r="B241" t="s">
         <v>474</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241">
         <v>1.5</v>
       </c>
     </row>
@@ -4612,7 +4616,7 @@
       <c r="B242" t="s">
         <v>474</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242">
         <v>1.5</v>
       </c>
     </row>
@@ -4623,7 +4627,7 @@
       <c r="B243" t="s">
         <v>474</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243">
         <v>1.5</v>
       </c>
     </row>
@@ -4634,7 +4638,7 @@
       <c r="B244" t="s">
         <v>474</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244">
         <v>1.5</v>
       </c>
     </row>
@@ -4645,7 +4649,7 @@
       <c r="B245" t="s">
         <v>502</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245">
         <v>3</v>
       </c>
     </row>
@@ -4656,7 +4660,7 @@
       <c r="B246" t="s">
         <v>466</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246">
         <v>150</v>
       </c>
     </row>
@@ -4667,7 +4671,7 @@
       <c r="B247" t="s">
         <v>474</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247">
         <v>1.5</v>
       </c>
     </row>
@@ -4678,7 +4682,7 @@
       <c r="B248" t="s">
         <v>474</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248">
         <v>1.5</v>
       </c>
     </row>
@@ -4689,7 +4693,7 @@
       <c r="B249" t="s">
         <v>474</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249">
         <v>1.5</v>
       </c>
     </row>
@@ -4700,7 +4704,7 @@
       <c r="B250" t="s">
         <v>498</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250">
         <v>7500</v>
       </c>
     </row>
@@ -4711,7 +4715,7 @@
       <c r="B251" t="s">
         <v>463</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -4722,7 +4726,7 @@
       <c r="B252" t="s">
         <v>463</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252">
         <v>201.63</v>
       </c>
     </row>
@@ -4733,7 +4737,7 @@
       <c r="B253" t="s">
         <v>463</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253">
         <v>0.39</v>
       </c>
     </row>
@@ -4744,7 +4748,7 @@
       <c r="B254" t="s">
         <v>484</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -4755,7 +4759,7 @@
       <c r="B255" t="s">
         <v>484</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -4766,7 +4770,7 @@
       <c r="B256" t="s">
         <v>484</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -4777,7 +4781,7 @@
       <c r="B257" t="s">
         <v>484</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257">
         <v>14.654999999999999</v>
       </c>
     </row>
@@ -4788,7 +4792,7 @@
       <c r="B258" t="s">
         <v>463</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -4799,7 +4803,7 @@
       <c r="B259" t="s">
         <v>463</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259">
         <v>201.63</v>
       </c>
     </row>
@@ -4810,7 +4814,7 @@
       <c r="B260" t="s">
         <v>463</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260">
         <v>0.39</v>
       </c>
     </row>
@@ -4821,7 +4825,7 @@
       <c r="B261" t="s">
         <v>474</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261">
         <v>1.5</v>
       </c>
     </row>
@@ -4832,7 +4836,7 @@
       <c r="B262" t="s">
         <v>467</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262">
         <v>2.25</v>
       </c>
     </row>
@@ -4843,7 +4847,7 @@
       <c r="B263" t="s">
         <v>481</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263">
         <v>59.64</v>
       </c>
     </row>
@@ -4854,7 +4858,7 @@
       <c r="B264" t="s">
         <v>488</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264">
         <v>50.46</v>
       </c>
     </row>
@@ -4865,7 +4869,7 @@
       <c r="B265" t="s">
         <v>474</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265">
         <v>76.14</v>
       </c>
     </row>
@@ -4876,7 +4880,7 @@
       <c r="B266" t="s">
         <v>463</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -4887,7 +4891,7 @@
       <c r="B267" t="s">
         <v>463</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267">
         <v>201.63</v>
       </c>
     </row>
@@ -4898,7 +4902,7 @@
       <c r="B268" t="s">
         <v>463</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268">
         <v>0.39</v>
       </c>
     </row>
@@ -4909,7 +4913,7 @@
       <c r="B269" t="s">
         <v>468</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269">
         <v>1.98</v>
       </c>
     </row>
@@ -4920,7 +4924,7 @@
       <c r="B270" t="s">
         <v>481</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270">
         <v>2.355</v>
       </c>
     </row>
@@ -4931,7 +4935,7 @@
       <c r="B271" t="s">
         <v>474</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -4942,7 +4946,7 @@
       <c r="B272" t="s">
         <v>474</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -4953,7 +4957,7 @@
       <c r="B273" t="s">
         <v>503</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273">
         <v>90.435000000000002</v>
       </c>
     </row>
@@ -4964,7 +4968,7 @@
       <c r="B274" t="s">
         <v>466</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274">
         <v>150</v>
       </c>
     </row>
@@ -4975,7 +4979,7 @@
       <c r="B275" t="s">
         <v>474</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275">
         <v>1.5</v>
       </c>
     </row>
@@ -4986,7 +4990,7 @@
       <c r="B276" t="s">
         <v>474</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276">
         <v>1.5</v>
       </c>
     </row>
@@ -4997,7 +5001,7 @@
       <c r="B277" t="s">
         <v>467</v>
       </c>
-      <c r="C277" s="2">
+      <c r="C277">
         <v>37.5</v>
       </c>
     </row>
@@ -5008,7 +5012,7 @@
       <c r="B278" t="s">
         <v>467</v>
       </c>
-      <c r="C278" s="2">
+      <c r="C278">
         <v>1.5</v>
       </c>
     </row>
@@ -5019,7 +5023,7 @@
       <c r="B279" t="s">
         <v>467</v>
       </c>
-      <c r="C279" s="2">
+      <c r="C279">
         <v>1.5</v>
       </c>
     </row>
@@ -5030,7 +5034,7 @@
       <c r="B280" t="s">
         <v>467</v>
       </c>
-      <c r="C280" s="2">
+      <c r="C280">
         <v>2.25</v>
       </c>
     </row>
@@ -5041,7 +5045,7 @@
       <c r="B281" t="s">
         <v>481</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281">
         <v>59.64</v>
       </c>
     </row>
@@ -5052,7 +5056,7 @@
       <c r="B282" t="s">
         <v>488</v>
       </c>
-      <c r="C282" s="2">
+      <c r="C282">
         <v>50.46</v>
       </c>
     </row>
@@ -5063,7 +5067,7 @@
       <c r="B283" t="s">
         <v>474</v>
       </c>
-      <c r="C283" s="2">
+      <c r="C283">
         <v>76.14</v>
       </c>
     </row>
@@ -5074,7 +5078,7 @@
       <c r="B284" t="s">
         <v>463</v>
       </c>
-      <c r="C284" s="2">
+      <c r="C284">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -5085,7 +5089,7 @@
       <c r="B285" t="s">
         <v>463</v>
       </c>
-      <c r="C285" s="2">
+      <c r="C285">
         <v>201.63</v>
       </c>
     </row>
@@ -5096,7 +5100,7 @@
       <c r="B286" t="s">
         <v>463</v>
       </c>
-      <c r="C286" s="2">
+      <c r="C286">
         <v>0.39</v>
       </c>
     </row>
@@ -5107,7 +5111,7 @@
       <c r="B287" t="s">
         <v>474</v>
       </c>
-      <c r="C287" s="2">
+      <c r="C287">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -5118,7 +5122,7 @@
       <c r="B288" t="s">
         <v>474</v>
       </c>
-      <c r="C288" s="2">
+      <c r="C288">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -5129,7 +5133,7 @@
       <c r="B289" t="s">
         <v>469</v>
       </c>
-      <c r="C289" s="2">
+      <c r="C289">
         <v>13.424999999999999</v>
       </c>
     </row>
@@ -5140,7 +5144,7 @@
       <c r="B290" t="s">
         <v>481</v>
       </c>
-      <c r="C290" s="2">
+      <c r="C290">
         <v>59.64</v>
       </c>
     </row>
@@ -5151,7 +5155,7 @@
       <c r="B291" t="s">
         <v>488</v>
       </c>
-      <c r="C291" s="2">
+      <c r="C291">
         <v>50.46</v>
       </c>
     </row>
@@ -5162,7 +5166,7 @@
       <c r="B292" t="s">
         <v>474</v>
       </c>
-      <c r="C292" s="2">
+      <c r="C292">
         <v>76.14</v>
       </c>
     </row>
@@ -5173,7 +5177,7 @@
       <c r="B293" t="s">
         <v>463</v>
       </c>
-      <c r="C293" s="2">
+      <c r="C293">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -5184,7 +5188,7 @@
       <c r="B294" t="s">
         <v>463</v>
       </c>
-      <c r="C294" s="2">
+      <c r="C294">
         <v>201.63</v>
       </c>
     </row>
@@ -5195,7 +5199,7 @@
       <c r="B295" t="s">
         <v>463</v>
       </c>
-      <c r="C295" s="2">
+      <c r="C295">
         <v>0.39</v>
       </c>
     </row>
@@ -5206,7 +5210,7 @@
       <c r="B296" t="s">
         <v>504</v>
       </c>
-      <c r="C296" s="2">
+      <c r="C296">
         <v>110.07</v>
       </c>
     </row>
@@ -5217,7 +5221,7 @@
       <c r="B297" t="s">
         <v>466</v>
       </c>
-      <c r="C297" s="2">
+      <c r="C297">
         <v>150</v>
       </c>
     </row>
@@ -5228,7 +5232,7 @@
       <c r="B298" t="s">
         <v>466</v>
       </c>
-      <c r="C298" s="2">
+      <c r="C298">
         <v>150</v>
       </c>
     </row>
@@ -5239,7 +5243,7 @@
       <c r="B299" t="s">
         <v>464</v>
       </c>
-      <c r="C299" s="2">
+      <c r="C299">
         <v>225</v>
       </c>
     </row>
@@ -5250,7 +5254,7 @@
       <c r="B300" t="s">
         <v>474</v>
       </c>
-      <c r="C300" s="2">
+      <c r="C300">
         <v>1.5</v>
       </c>
     </row>
@@ -5261,7 +5265,7 @@
       <c r="B301" t="s">
         <v>474</v>
       </c>
-      <c r="C301" s="2">
+      <c r="C301">
         <v>1.5</v>
       </c>
     </row>
@@ -5272,7 +5276,7 @@
       <c r="B302" t="s">
         <v>474</v>
       </c>
-      <c r="C302" s="2">
+      <c r="C302">
         <v>1.5</v>
       </c>
     </row>
@@ -5283,7 +5287,7 @@
       <c r="B303" t="s">
         <v>474</v>
       </c>
-      <c r="C303" s="2">
+      <c r="C303">
         <v>1.5</v>
       </c>
     </row>
@@ -5294,7 +5298,7 @@
       <c r="B304" t="s">
         <v>474</v>
       </c>
-      <c r="C304" s="2">
+      <c r="C304">
         <v>1.5</v>
       </c>
     </row>
@@ -5305,7 +5309,7 @@
       <c r="B305" t="s">
         <v>474</v>
       </c>
-      <c r="C305" s="2">
+      <c r="C305">
         <v>1.5</v>
       </c>
     </row>
@@ -5316,7 +5320,7 @@
       <c r="B306" t="s">
         <v>467</v>
       </c>
-      <c r="C306" s="2">
+      <c r="C306">
         <v>37.5</v>
       </c>
     </row>
@@ -5327,7 +5331,7 @@
       <c r="B307" t="s">
         <v>487</v>
       </c>
-      <c r="C307" s="2">
+      <c r="C307">
         <v>37.5</v>
       </c>
     </row>
@@ -5338,7 +5342,7 @@
       <c r="B308" t="s">
         <v>467</v>
       </c>
-      <c r="C308" s="2">
+      <c r="C308">
         <v>2.25</v>
       </c>
     </row>
@@ -5349,7 +5353,7 @@
       <c r="B309" t="s">
         <v>481</v>
       </c>
-      <c r="C309" s="2">
+      <c r="C309">
         <v>59.64</v>
       </c>
     </row>
@@ -5360,7 +5364,7 @@
       <c r="B310" t="s">
         <v>488</v>
       </c>
-      <c r="C310" s="2">
+      <c r="C310">
         <v>50.46</v>
       </c>
     </row>
@@ -5371,7 +5375,7 @@
       <c r="B311" t="s">
         <v>474</v>
       </c>
-      <c r="C311" s="2">
+      <c r="C311">
         <v>76.14</v>
       </c>
     </row>
@@ -5382,7 +5386,7 @@
       <c r="B312" t="s">
         <v>463</v>
       </c>
-      <c r="C312" s="2">
+      <c r="C312">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -5393,7 +5397,7 @@
       <c r="B313" t="s">
         <v>463</v>
       </c>
-      <c r="C313" s="2">
+      <c r="C313">
         <v>115.22999999999999</v>
       </c>
     </row>
@@ -5404,7 +5408,7 @@
       <c r="B314" t="s">
         <v>463</v>
       </c>
-      <c r="C314" s="2">
+      <c r="C314">
         <v>201.63</v>
       </c>
     </row>
@@ -5415,7 +5419,7 @@
       <c r="B315" t="s">
         <v>463</v>
       </c>
-      <c r="C315" s="2">
+      <c r="C315">
         <v>0.39</v>
       </c>
     </row>
@@ -5426,7 +5430,7 @@
       <c r="B316" t="s">
         <v>474</v>
       </c>
-      <c r="C316" s="2">
+      <c r="C316">
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -5437,7 +5441,7 @@
       <c r="B317" t="s">
         <v>463</v>
       </c>
-      <c r="C317" s="2">
+      <c r="C317">
         <v>0.39</v>
       </c>
     </row>
@@ -5448,7 +5452,7 @@
       <c r="B318" t="s">
         <v>471</v>
       </c>
-      <c r="C318" s="2">
+      <c r="C318">
         <v>52.11</v>
       </c>
     </row>
@@ -5459,7 +5463,7 @@
       <c r="B319" t="s">
         <v>469</v>
       </c>
-      <c r="C319" s="2">
+      <c r="C319">
         <v>16.424999999999997</v>
       </c>
     </row>
@@ -5470,7 +5474,7 @@
       <c r="B320" t="s">
         <v>463</v>
       </c>
-      <c r="C320" s="2">
+      <c r="C320">
         <v>11.925000000000001</v>
       </c>
     </row>
@@ -5481,7 +5485,7 @@
       <c r="B321" t="s">
         <v>463</v>
       </c>
-      <c r="C321" s="2">
+      <c r="C321">
         <v>11.925000000000001</v>
       </c>
     </row>
@@ -5492,7 +5496,7 @@
       <c r="B322" t="s">
         <v>505</v>
       </c>
-      <c r="C322" s="2">
+      <c r="C322">
         <v>91.26</v>
       </c>
     </row>
@@ -5503,7 +5507,7 @@
       <c r="B323" t="s">
         <v>466</v>
       </c>
-      <c r="C323" s="2">
+      <c r="C323">
         <v>150</v>
       </c>
     </row>
@@ -5514,7 +5518,7 @@
       <c r="B324" t="s">
         <v>467</v>
       </c>
-      <c r="C324" s="2">
+      <c r="C324">
         <v>1.5</v>
       </c>
     </row>
@@ -5525,7 +5529,7 @@
       <c r="B325" t="s">
         <v>467</v>
       </c>
-      <c r="C325" s="2">
+      <c r="C325">
         <v>1.5</v>
       </c>
     </row>
@@ -5536,7 +5540,7 @@
       <c r="B326" t="s">
         <v>466</v>
       </c>
-      <c r="C326" s="2">
+      <c r="C326">
         <v>45</v>
       </c>
     </row>
@@ -5547,7 +5551,7 @@
       <c r="B327" t="s">
         <v>467</v>
       </c>
-      <c r="C327" s="2">
+      <c r="C327">
         <v>2.25</v>
       </c>
     </row>
@@ -5558,7 +5562,7 @@
       <c r="B328" t="s">
         <v>463</v>
       </c>
-      <c r="C328" s="2">
+      <c r="C328">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -5569,7 +5573,7 @@
       <c r="B329" t="s">
         <v>463</v>
       </c>
-      <c r="C329" s="2">
+      <c r="C329">
         <v>115.22999999999999</v>
       </c>
     </row>
@@ -5580,7 +5584,7 @@
       <c r="B330" t="s">
         <v>463</v>
       </c>
-      <c r="C330" s="2">
+      <c r="C330">
         <v>201.63</v>
       </c>
     </row>
@@ -5591,7 +5595,7 @@
       <c r="B331" t="s">
         <v>463</v>
       </c>
-      <c r="C331" s="2">
+      <c r="C331">
         <v>0.39</v>
       </c>
     </row>
@@ -5602,7 +5606,7 @@
       <c r="B332" t="s">
         <v>478</v>
       </c>
-      <c r="C332" s="2">
+      <c r="C332">
         <v>89.234999999999999</v>
       </c>
     </row>
@@ -5613,7 +5617,7 @@
       <c r="B333" t="s">
         <v>463</v>
       </c>
-      <c r="C333" s="2">
+      <c r="C333">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -5624,7 +5628,7 @@
       <c r="B334" t="s">
         <v>463</v>
       </c>
-      <c r="C334" s="2">
+      <c r="C334">
         <v>201.63</v>
       </c>
     </row>
@@ -5635,7 +5639,7 @@
       <c r="B335" t="s">
         <v>463</v>
       </c>
-      <c r="C335" s="2">
+      <c r="C335">
         <v>0.39</v>
       </c>
     </row>
@@ -5646,7 +5650,7 @@
       <c r="B336" t="s">
         <v>474</v>
       </c>
-      <c r="C336" s="2">
+      <c r="C336">
         <v>1.5</v>
       </c>
     </row>
@@ -5657,7 +5661,7 @@
       <c r="B337" t="s">
         <v>467</v>
       </c>
-      <c r="C337" s="2">
+      <c r="C337">
         <v>75</v>
       </c>
     </row>
@@ -5668,7 +5672,7 @@
       <c r="B338" t="s">
         <v>467</v>
       </c>
-      <c r="C338" s="2">
+      <c r="C338">
         <v>75</v>
       </c>
     </row>
@@ -5679,7 +5683,7 @@
       <c r="B339" t="s">
         <v>467</v>
       </c>
-      <c r="C339" s="2">
+      <c r="C339">
         <v>75</v>
       </c>
     </row>
@@ -5690,7 +5694,7 @@
       <c r="B340" t="s">
         <v>467</v>
       </c>
-      <c r="C340" s="2">
+      <c r="C340">
         <v>150</v>
       </c>
     </row>
@@ -5701,7 +5705,7 @@
       <c r="B341" t="s">
         <v>467</v>
       </c>
-      <c r="C341" s="2">
+      <c r="C341">
         <v>75</v>
       </c>
     </row>
@@ -5712,7 +5716,7 @@
       <c r="B342" t="s">
         <v>467</v>
       </c>
-      <c r="C342" s="2">
+      <c r="C342">
         <v>150</v>
       </c>
     </row>
@@ -5723,7 +5727,7 @@
       <c r="B343" t="s">
         <v>467</v>
       </c>
-      <c r="C343" s="2">
+      <c r="C343">
         <v>75</v>
       </c>
     </row>
@@ -5734,7 +5738,7 @@
       <c r="B344" t="s">
         <v>467</v>
       </c>
-      <c r="C344" s="2">
+      <c r="C344">
         <v>75</v>
       </c>
     </row>
@@ -5745,7 +5749,7 @@
       <c r="B345" t="s">
         <v>474</v>
       </c>
-      <c r="C345" s="2">
+      <c r="C345">
         <v>1.5</v>
       </c>
     </row>
@@ -5756,7 +5760,7 @@
       <c r="B346" t="s">
         <v>468</v>
       </c>
-      <c r="C346" s="2">
+      <c r="C346">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -5767,7 +5771,7 @@
       <c r="B347" t="s">
         <v>506</v>
       </c>
-      <c r="C347" s="2">
+      <c r="C347">
         <v>109.005</v>
       </c>
     </row>
@@ -5778,7 +5782,7 @@
       <c r="B348" t="s">
         <v>463</v>
       </c>
-      <c r="C348" s="2">
+      <c r="C348">
         <v>11.925000000000001</v>
       </c>
     </row>
@@ -5789,7 +5793,7 @@
       <c r="B349" t="s">
         <v>468</v>
       </c>
-      <c r="C349" s="2">
+      <c r="C349">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -5800,7 +5804,7 @@
       <c r="B350" t="s">
         <v>506</v>
       </c>
-      <c r="C350" s="2">
+      <c r="C350">
         <v>109.005</v>
       </c>
     </row>
@@ -5811,7 +5815,7 @@
       <c r="B351" t="s">
         <v>468</v>
       </c>
-      <c r="C351" s="2">
+      <c r="C351">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -5822,7 +5826,7 @@
       <c r="B352" t="s">
         <v>507</v>
       </c>
-      <c r="C352" s="2">
+      <c r="C352">
         <v>92.94</v>
       </c>
     </row>
@@ -5833,7 +5837,7 @@
       <c r="B353" t="s">
         <v>474</v>
       </c>
-      <c r="C353" s="2">
+      <c r="C353">
         <v>76.14</v>
       </c>
     </row>
@@ -5844,7 +5848,7 @@
       <c r="B354" t="s">
         <v>507</v>
       </c>
-      <c r="C354" s="2">
+      <c r="C354">
         <v>92.94</v>
       </c>
     </row>
@@ -5855,7 +5859,7 @@
       <c r="B355" t="s">
         <v>474</v>
       </c>
-      <c r="C355" s="2">
+      <c r="C355">
         <v>76.14</v>
       </c>
     </row>
@@ -5866,7 +5870,7 @@
       <c r="B356" t="s">
         <v>468</v>
       </c>
-      <c r="C356" s="2">
+      <c r="C356">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -5877,7 +5881,7 @@
       <c r="B357" t="s">
         <v>507</v>
       </c>
-      <c r="C357" s="2">
+      <c r="C357">
         <v>92.94</v>
       </c>
     </row>
@@ -5888,7 +5892,7 @@
       <c r="B358" t="s">
         <v>474</v>
       </c>
-      <c r="C358" s="2">
+      <c r="C358">
         <v>76.14</v>
       </c>
     </row>
@@ -5899,7 +5903,7 @@
       <c r="B359" t="s">
         <v>474</v>
       </c>
-      <c r="C359" s="2">
+      <c r="C359">
         <v>1.5</v>
       </c>
     </row>
@@ -5910,7 +5914,7 @@
       <c r="B360" t="s">
         <v>468</v>
       </c>
-      <c r="C360" s="2">
+      <c r="C360">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -5921,7 +5925,7 @@
       <c r="B361" t="s">
         <v>474</v>
       </c>
-      <c r="C361" s="2">
+      <c r="C361">
         <v>87.72</v>
       </c>
     </row>
@@ -5932,7 +5936,7 @@
       <c r="B362" t="s">
         <v>481</v>
       </c>
-      <c r="C362" s="2">
+      <c r="C362">
         <v>59.64</v>
       </c>
     </row>
@@ -5943,7 +5947,7 @@
       <c r="B363" t="s">
         <v>506</v>
       </c>
-      <c r="C363" s="2">
+      <c r="C363">
         <v>70.155000000000001</v>
       </c>
     </row>
@@ -5954,7 +5958,7 @@
       <c r="B364" t="s">
         <v>469</v>
       </c>
-      <c r="C364" s="2">
+      <c r="C364">
         <v>67.545000000000002</v>
       </c>
     </row>
@@ -5965,7 +5969,7 @@
       <c r="B365" t="s">
         <v>469</v>
       </c>
-      <c r="C365" s="2">
+      <c r="C365">
         <v>67.545000000000002</v>
       </c>
     </row>
@@ -5976,7 +5980,7 @@
       <c r="B366" t="s">
         <v>463</v>
       </c>
-      <c r="C366" s="2">
+      <c r="C366">
         <v>1.1850000000000001</v>
       </c>
     </row>
@@ -5987,7 +5991,7 @@
       <c r="B367" t="s">
         <v>474</v>
       </c>
-      <c r="C367" s="2">
+      <c r="C367">
         <v>76.14</v>
       </c>
     </row>
@@ -5998,7 +6002,7 @@
       <c r="B368" t="s">
         <v>468</v>
       </c>
-      <c r="C368" s="2">
+      <c r="C368">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -6009,7 +6013,7 @@
       <c r="B369" t="s">
         <v>474</v>
       </c>
-      <c r="C369" s="2">
+      <c r="C369">
         <v>87.72</v>
       </c>
     </row>
@@ -6020,7 +6024,7 @@
       <c r="B370" t="s">
         <v>481</v>
       </c>
-      <c r="C370" s="2">
+      <c r="C370">
         <v>59.64</v>
       </c>
     </row>
@@ -6031,7 +6035,7 @@
       <c r="B371" t="s">
         <v>506</v>
       </c>
-      <c r="C371" s="2">
+      <c r="C371">
         <v>70.155000000000001</v>
       </c>
     </row>
@@ -6042,7 +6046,7 @@
       <c r="B372" t="s">
         <v>469</v>
       </c>
-      <c r="C372" s="2">
+      <c r="C372">
         <v>67.545000000000002</v>
       </c>
     </row>
@@ -6053,7 +6057,7 @@
       <c r="B373" t="s">
         <v>469</v>
       </c>
-      <c r="C373" s="2">
+      <c r="C373">
         <v>67.545000000000002</v>
       </c>
     </row>
@@ -6064,7 +6068,7 @@
       <c r="B374" t="s">
         <v>463</v>
       </c>
-      <c r="C374" s="2">
+      <c r="C374">
         <v>1.1850000000000001</v>
       </c>
     </row>
@@ -6075,7 +6079,7 @@
       <c r="B375" t="s">
         <v>483</v>
       </c>
-      <c r="C375" s="2">
+      <c r="C375">
         <v>29.369999999999997</v>
       </c>
     </row>
@@ -6086,7 +6090,7 @@
       <c r="B376" t="s">
         <v>469</v>
       </c>
-      <c r="C376" s="2">
+      <c r="C376">
         <v>67.545000000000002</v>
       </c>
     </row>
@@ -6097,7 +6101,7 @@
       <c r="B377" t="s">
         <v>508</v>
       </c>
-      <c r="C377" s="2">
+      <c r="C377">
         <v>2.4749999999999996</v>
       </c>
     </row>
@@ -6108,7 +6112,7 @@
       <c r="B378" t="s">
         <v>474</v>
       </c>
-      <c r="C378" s="2">
+      <c r="C378">
         <v>76.14</v>
       </c>
     </row>
@@ -6119,7 +6123,7 @@
       <c r="B379" t="s">
         <v>468</v>
       </c>
-      <c r="C379" s="2">
+      <c r="C379">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -6130,7 +6134,7 @@
       <c r="B380" t="s">
         <v>474</v>
       </c>
-      <c r="C380" s="2">
+      <c r="C380">
         <v>87.72</v>
       </c>
     </row>
@@ -6141,7 +6145,7 @@
       <c r="B381" t="s">
         <v>481</v>
       </c>
-      <c r="C381" s="2">
+      <c r="C381">
         <v>59.64</v>
       </c>
     </row>
@@ -6152,7 +6156,7 @@
       <c r="B382" t="s">
         <v>506</v>
       </c>
-      <c r="C382" s="2">
+      <c r="C382">
         <v>70.155000000000001</v>
       </c>
     </row>
@@ -6163,7 +6167,7 @@
       <c r="B383" t="s">
         <v>469</v>
       </c>
-      <c r="C383" s="2">
+      <c r="C383">
         <v>67.545000000000002</v>
       </c>
     </row>
@@ -6174,7 +6178,7 @@
       <c r="B384" t="s">
         <v>469</v>
       </c>
-      <c r="C384" s="2">
+      <c r="C384">
         <v>67.545000000000002</v>
       </c>
     </row>
@@ -6185,7 +6189,7 @@
       <c r="B385" t="s">
         <v>463</v>
       </c>
-      <c r="C385" s="2">
+      <c r="C385">
         <v>1.1850000000000001</v>
       </c>
     </row>
@@ -6196,7 +6200,7 @@
       <c r="B386" t="s">
         <v>483</v>
       </c>
-      <c r="C386" s="2">
+      <c r="C386">
         <v>29.369999999999997</v>
       </c>
     </row>
@@ -6207,7 +6211,7 @@
       <c r="B387" t="s">
         <v>469</v>
       </c>
-      <c r="C387" s="2">
+      <c r="C387">
         <v>67.545000000000002</v>
       </c>
     </row>
@@ -6218,7 +6222,7 @@
       <c r="B388" t="s">
         <v>508</v>
       </c>
-      <c r="C388" s="2">
+      <c r="C388">
         <v>2.4749999999999996</v>
       </c>
     </row>
@@ -6229,7 +6233,7 @@
       <c r="B389" t="s">
         <v>474</v>
       </c>
-      <c r="C389" s="2">
+      <c r="C389">
         <v>76.14</v>
       </c>
     </row>
@@ -6240,7 +6244,7 @@
       <c r="B390" t="s">
         <v>468</v>
       </c>
-      <c r="C390" s="2">
+      <c r="C390">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -6251,7 +6255,7 @@
       <c r="B391" t="s">
         <v>481</v>
       </c>
-      <c r="C391" s="2">
+      <c r="C391">
         <v>59.64</v>
       </c>
     </row>
@@ -6262,7 +6266,7 @@
       <c r="B392" t="s">
         <v>474</v>
       </c>
-      <c r="C392" s="2">
+      <c r="C392">
         <v>76.14</v>
       </c>
     </row>
@@ -6273,7 +6277,7 @@
       <c r="B393" t="s">
         <v>509</v>
       </c>
-      <c r="C393" s="2">
+      <c r="C393">
         <v>380.13</v>
       </c>
     </row>
@@ -6284,7 +6288,7 @@
       <c r="B394" t="s">
         <v>468</v>
       </c>
-      <c r="C394" s="2">
+      <c r="C394">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -6295,7 +6299,7 @@
       <c r="B395" t="s">
         <v>481</v>
       </c>
-      <c r="C395" s="2">
+      <c r="C395">
         <v>59.64</v>
       </c>
     </row>
@@ -6306,7 +6310,7 @@
       <c r="B396" t="s">
         <v>474</v>
       </c>
-      <c r="C396" s="2">
+      <c r="C396">
         <v>76.14</v>
       </c>
     </row>
@@ -6317,7 +6321,7 @@
       <c r="B397" t="s">
         <v>509</v>
       </c>
-      <c r="C397" s="2">
+      <c r="C397">
         <v>380.13</v>
       </c>
     </row>
@@ -6328,7 +6332,7 @@
       <c r="B398" t="s">
         <v>468</v>
       </c>
-      <c r="C398" s="2">
+      <c r="C398">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -6339,7 +6343,7 @@
       <c r="B399" t="s">
         <v>481</v>
       </c>
-      <c r="C399" s="2">
+      <c r="C399">
         <v>59.64</v>
       </c>
     </row>
@@ -6350,7 +6354,7 @@
       <c r="B400" t="s">
         <v>474</v>
       </c>
-      <c r="C400" s="2">
+      <c r="C400">
         <v>76.14</v>
       </c>
     </row>
@@ -6361,7 +6365,7 @@
       <c r="B401" t="s">
         <v>483</v>
       </c>
-      <c r="C401" s="2">
+      <c r="C401">
         <v>29.369999999999997</v>
       </c>
     </row>
@@ -6372,7 +6376,7 @@
       <c r="B402" t="s">
         <v>496</v>
       </c>
-      <c r="C402" s="2">
+      <c r="C402">
         <v>13.245000000000001</v>
       </c>
     </row>
@@ -6383,7 +6387,7 @@
       <c r="B403" t="s">
         <v>467</v>
       </c>
-      <c r="C403" s="2">
+      <c r="C403">
         <v>89.234999999999999</v>
       </c>
     </row>
@@ -6394,7 +6398,7 @@
       <c r="B404" t="s">
         <v>510</v>
       </c>
-      <c r="C404" s="2">
+      <c r="C404">
         <v>18089.235000000001</v>
       </c>
     </row>
@@ -6405,7 +6409,7 @@
       <c r="B405" t="s">
         <v>511</v>
       </c>
-      <c r="C405" s="2">
+      <c r="C405">
         <v>1427.7450000000001</v>
       </c>
     </row>
@@ -6416,7 +6420,7 @@
       <c r="B406" t="s">
         <v>511</v>
       </c>
-      <c r="C406" s="2">
+      <c r="C406">
         <v>1427.7450000000001</v>
       </c>
     </row>
@@ -6427,7 +6431,7 @@
       <c r="B407" t="s">
         <v>511</v>
       </c>
-      <c r="C407" s="2">
+      <c r="C407">
         <v>1427.7450000000001</v>
       </c>
     </row>
@@ -6438,7 +6442,7 @@
       <c r="B408" t="s">
         <v>468</v>
       </c>
-      <c r="C408" s="2">
+      <c r="C408">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -6449,7 +6453,7 @@
       <c r="B409" t="s">
         <v>481</v>
       </c>
-      <c r="C409" s="2">
+      <c r="C409">
         <v>59.64</v>
       </c>
     </row>
@@ -6460,7 +6464,7 @@
       <c r="B410" t="s">
         <v>482</v>
       </c>
-      <c r="C410" s="2">
+      <c r="C410">
         <v>59.64</v>
       </c>
     </row>
@@ -6471,7 +6475,7 @@
       <c r="B411" t="s">
         <v>469</v>
       </c>
-      <c r="C411" s="2">
+      <c r="C411">
         <v>67.545000000000002</v>
       </c>
     </row>
@@ -6482,7 +6486,7 @@
       <c r="B412" t="s">
         <v>474</v>
       </c>
-      <c r="C412" s="2">
+      <c r="C412">
         <v>76.14</v>
       </c>
     </row>
@@ -6493,7 +6497,7 @@
       <c r="B413" t="s">
         <v>483</v>
       </c>
-      <c r="C413" s="2">
+      <c r="C413">
         <v>29.369999999999997</v>
       </c>
     </row>
@@ -6504,7 +6508,7 @@
       <c r="B414" t="s">
         <v>463</v>
       </c>
-      <c r="C414" s="2">
+      <c r="C414">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -6515,7 +6519,7 @@
       <c r="B415" t="s">
         <v>463</v>
       </c>
-      <c r="C415" s="2">
+      <c r="C415">
         <v>201.63</v>
       </c>
     </row>
@@ -6526,7 +6530,7 @@
       <c r="B416" t="s">
         <v>463</v>
       </c>
-      <c r="C416" s="2">
+      <c r="C416">
         <v>0.39</v>
       </c>
     </row>
@@ -6537,7 +6541,7 @@
       <c r="B417" t="s">
         <v>463</v>
       </c>
-      <c r="C417" s="2">
+      <c r="C417">
         <v>11.925000000000001</v>
       </c>
     </row>
@@ -6548,7 +6552,7 @@
       <c r="B418" t="s">
         <v>468</v>
       </c>
-      <c r="C418" s="2">
+      <c r="C418">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -6559,7 +6563,7 @@
       <c r="B419" t="s">
         <v>481</v>
       </c>
-      <c r="C419" s="2">
+      <c r="C419">
         <v>59.64</v>
       </c>
     </row>
@@ -6570,7 +6574,7 @@
       <c r="B420" t="s">
         <v>482</v>
       </c>
-      <c r="C420" s="2">
+      <c r="C420">
         <v>59.64</v>
       </c>
     </row>
@@ -6581,7 +6585,7 @@
       <c r="B421" t="s">
         <v>483</v>
       </c>
-      <c r="C421" s="2">
+      <c r="C421">
         <v>29.369999999999997</v>
       </c>
     </row>
@@ -6592,7 +6596,7 @@
       <c r="B422" t="s">
         <v>463</v>
       </c>
-      <c r="C422" s="2">
+      <c r="C422">
         <v>115.22999999999999</v>
       </c>
     </row>
@@ -6603,7 +6607,7 @@
       <c r="B423" t="s">
         <v>474</v>
       </c>
-      <c r="C423" s="2">
+      <c r="C423">
         <v>3.87</v>
       </c>
     </row>
@@ -6614,7 +6618,7 @@
       <c r="B424" t="s">
         <v>497</v>
       </c>
-      <c r="C424" s="2">
+      <c r="C424">
         <v>43.214999999999996</v>
       </c>
     </row>
@@ -6625,7 +6629,7 @@
       <c r="B425" t="s">
         <v>485</v>
       </c>
-      <c r="C425" s="2">
+      <c r="C425">
         <v>126.73499999999999</v>
       </c>
     </row>
@@ -6636,7 +6640,7 @@
       <c r="B426" t="s">
         <v>485</v>
       </c>
-      <c r="C426" s="2">
+      <c r="C426">
         <v>120</v>
       </c>
     </row>
@@ -6647,7 +6651,7 @@
       <c r="B427" t="s">
         <v>467</v>
       </c>
-      <c r="C427" s="2">
+      <c r="C427">
         <v>134.23499999999999</v>
       </c>
     </row>
@@ -6658,7 +6662,7 @@
       <c r="B428" t="s">
         <v>478</v>
       </c>
-      <c r="C428" s="2">
+      <c r="C428">
         <v>120</v>
       </c>
     </row>
@@ -6669,7 +6673,7 @@
       <c r="B429" t="s">
         <v>468</v>
       </c>
-      <c r="C429" s="2">
+      <c r="C429">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -6680,7 +6684,7 @@
       <c r="B430" t="s">
         <v>488</v>
       </c>
-      <c r="C430" s="2">
+      <c r="C430">
         <v>50.46</v>
       </c>
     </row>
@@ -6691,7 +6695,7 @@
       <c r="B431" t="s">
         <v>468</v>
       </c>
-      <c r="C431" s="2">
+      <c r="C431">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -6702,7 +6706,7 @@
       <c r="B432" t="s">
         <v>481</v>
       </c>
-      <c r="C432" s="2">
+      <c r="C432">
         <v>59.64</v>
       </c>
     </row>
@@ -6713,7 +6717,7 @@
       <c r="B433" t="s">
         <v>482</v>
       </c>
-      <c r="C433" s="2">
+      <c r="C433">
         <v>59.64</v>
       </c>
     </row>
@@ -6724,7 +6728,7 @@
       <c r="B434" t="s">
         <v>463</v>
       </c>
-      <c r="C434" s="2">
+      <c r="C434">
         <v>266.44499999999999</v>
       </c>
     </row>
@@ -6735,7 +6739,7 @@
       <c r="B435" t="s">
         <v>512</v>
       </c>
-      <c r="C435" s="2">
+      <c r="C435">
         <v>31.349999999999998</v>
       </c>
     </row>
@@ -6746,7 +6750,7 @@
       <c r="B436" t="s">
         <v>463</v>
       </c>
-      <c r="C436" s="2">
+      <c r="C436">
         <v>266.44499999999999</v>
       </c>
     </row>
@@ -6757,7 +6761,7 @@
       <c r="B437" t="s">
         <v>463</v>
       </c>
-      <c r="C437" s="2">
+      <c r="C437">
         <v>266.44499999999999</v>
       </c>
     </row>
@@ -6768,7 +6772,7 @@
       <c r="B438" t="s">
         <v>463</v>
       </c>
-      <c r="C438" s="2">
+      <c r="C438">
         <v>266.44499999999999</v>
       </c>
     </row>
@@ -6779,7 +6783,7 @@
       <c r="B439" t="s">
         <v>463</v>
       </c>
-      <c r="C439" s="2">
+      <c r="C439">
         <v>266.44499999999999</v>
       </c>
     </row>
@@ -6790,7 +6794,7 @@
       <c r="B440" t="s">
         <v>463</v>
       </c>
-      <c r="C440" s="2">
+      <c r="C440">
         <v>266.44499999999999</v>
       </c>
     </row>
@@ -6801,7 +6805,7 @@
       <c r="B441" t="s">
         <v>463</v>
       </c>
-      <c r="C441" s="2">
+      <c r="C441">
         <v>266.44499999999999</v>
       </c>
     </row>
@@ -6812,7 +6816,7 @@
       <c r="B442" t="s">
         <v>468</v>
       </c>
-      <c r="C442" s="2">
+      <c r="C442">
         <v>104.02499999999999</v>
       </c>
     </row>
@@ -6823,7 +6827,7 @@
       <c r="B443" t="s">
         <v>481</v>
       </c>
-      <c r="C443" s="2">
+      <c r="C443">
         <v>59.64</v>
       </c>
     </row>
@@ -6834,7 +6838,7 @@
       <c r="B444" t="s">
         <v>482</v>
       </c>
-      <c r="C444" s="2">
+      <c r="C444">
         <v>59.64</v>
       </c>
     </row>
@@ -6845,7 +6849,7 @@
       <c r="B445" t="s">
         <v>483</v>
       </c>
-      <c r="C445" s="2">
+      <c r="C445">
         <v>29.369999999999997</v>
       </c>
     </row>
@@ -6856,7 +6860,7 @@
       <c r="B446" t="s">
         <v>463</v>
       </c>
-      <c r="C446" s="2">
+      <c r="C446">
         <v>75.224999999999994</v>
       </c>
     </row>
@@ -6867,7 +6871,7 @@
       <c r="B447" t="s">
         <v>463</v>
       </c>
-      <c r="C447" s="2">
+      <c r="C447">
         <v>115.22999999999999</v>
       </c>
     </row>
@@ -6878,7 +6882,7 @@
       <c r="B448" t="s">
         <v>513</v>
       </c>
-      <c r="C448" s="2">
+      <c r="C448">
         <v>1.5</v>
       </c>
     </row>
@@ -6889,7 +6893,7 @@
       <c r="B449" t="s">
         <v>466</v>
       </c>
-      <c r="C449" s="2">
+      <c r="C449">
         <v>90</v>
       </c>
     </row>
@@ -6900,7 +6904,7 @@
       <c r="B450" t="s">
         <v>478</v>
       </c>
-      <c r="C450" s="2">
+      <c r="C450">
         <v>90</v>
       </c>
     </row>
@@ -6911,7 +6915,7 @@
       <c r="B451" t="s">
         <v>462</v>
       </c>
-      <c r="C451" s="2">
+      <c r="C451">
         <v>90</v>
       </c>
     </row>
@@ -6922,7 +6926,7 @@
       <c r="B452" t="s">
         <v>474</v>
       </c>
-      <c r="C452" s="2">
+      <c r="C452">
         <v>90</v>
       </c>
     </row>
@@ -6933,7 +6937,7 @@
       <c r="B453" t="s">
         <v>474</v>
       </c>
-      <c r="C453" s="2">
+      <c r="C453">
         <v>90</v>
       </c>
     </row>
@@ -6944,7 +6948,7 @@
       <c r="B454" t="s">
         <v>471</v>
       </c>
-      <c r="C454" s="2">
+      <c r="C454">
         <v>90</v>
       </c>
     </row>
@@ -6955,7 +6959,7 @@
       <c r="B455" t="s">
         <v>481</v>
       </c>
-      <c r="C455" s="2">
+      <c r="C455">
         <v>114.24</v>
       </c>
     </row>
@@ -6966,7 +6970,7 @@
       <c r="B456" t="s">
         <v>464</v>
       </c>
-      <c r="C456" s="2">
+      <c r="C456">
         <v>101.72999999999999</v>
       </c>
     </row>
@@ -6977,7 +6981,7 @@
       <c r="B457" t="s">
         <v>507</v>
       </c>
-      <c r="C457" s="2">
+      <c r="C457">
         <v>92.94</v>
       </c>
     </row>
@@ -6988,7 +6992,7 @@
       <c r="B458" t="s">
         <v>474</v>
       </c>
-      <c r="C458" s="2">
+      <c r="C458">
         <v>76.14</v>
       </c>
     </row>
@@ -6999,7 +7003,7 @@
       <c r="B459" t="s">
         <v>514</v>
       </c>
-      <c r="C459" s="2">
+      <c r="C459">
         <v>45</v>
       </c>
     </row>
@@ -7010,7 +7014,7 @@
       <c r="B460" t="s">
         <v>514</v>
       </c>
-      <c r="C460" s="2">
+      <c r="C460">
         <v>90</v>
       </c>
     </row>
